--- a/flows/FTSL_fund_flow_data.xlsx
+++ b/flows/FTSL_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2730"/>
+  <dimension ref="A1:B2742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27735,6 +27735,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2731">
+      <c r="A2731" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2742" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
